--- a/Testdata/TC_51.xlsx
+++ b/Testdata/TC_51.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>PhwAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAkkrK9sY0xA93sCJUsQ5LrdV6KETm2WJNDhTO0rbcESJEiTVEUxaZIr+hTigLdLtoESHd7+Zdg7d0+9Rd65sKbJGctd2GsOec2Z86c6xi9cx0GxiWJmR/RvYpdsyoGoW7k+fR8r5Lws6r9qPKOgzrXLgmOcIxDwoHYAC7Kdq+Zv1eZcj7bNc2rq6va1UYtis/NumXZ5uN+b+ROSYirPmUcU5dUMi7vzVwVB7W8sE849jDHinOv0h11ay3iu22A9THF5ySuNRPmU8JYh3Kf+4QJzphgTlrt/vfVwZx67VHNRuYSPKdsJn7gKboSpYJrOtiWjP2QOHXL3q5a29UNe2zt7G5t7tr1mrVjv5cyZoSohxkfkfjSdyVgxHE4k+zW9oZt7Wxt2nVkriQCWbkBHDQIvCG59BnxWiQI2FoWMfUFNlwOp17PmBYyC7xa0MNVOIjxbDr2eUDWU2PYbxoh1brkQhy0H8XEBfs9SKVDcjWItVnHsx5gx1M/5vM2nq8t65iReDATRlqP1UHtiPJGQGJ+PIO7Jh64AiAcHicEmXcgc6a2z1z49mlCPOcMB6zIVEKikyi+YDPskkOIY1PIuKJBhD1wOO4z7rssF7CEQUdxNAORsHszCrx9EKtVXIHIRHcp2Fjs24yii0XpZSSS1yovGC41xDwlX4Kj0TS6GtBgPkomzI39CfHazZR6JQ6JiNTcrYTxKAQtchBSsAKk339rDv8gCBcxqE1cP8TBUQCGZM4GCCoBUCPh0ZnPW1GQhDSz6AIUncChxuQ6O2S2RgO4YCrsHtEuTemVpVeiygzD6Crbcxkh7VAAN5ib+tkyYpG4DbD0Bpcx8lLEKff9AGpE8ToK0LJjjKaE8JVeoTBIpMN9UXWcRhAgM18i8Exwb1DDsaBwVOXP2LJ25Q9sm6FRh3p306VIdJiEgwmE8KU8kGMDbgGE4AhBM8D0AqAnPp8eNlLVV2CQOvCd9Ms4BME6C/BcgjOjFGGoS90g8YjKAV16Jj1S6Kbu8E40WgL1IKodhOl8PJ9BKmb+LoePvQoU513GYyj/FceNEsrjuUgWyNSkb+JhyYTKDXBwb56zmLyfQNcx30+o24q8++/mKescU5/fX8MoiVUGvD+LtJ7IhQlrE5FVZJ6/N7+7zplYvBZ5SEkYUd+9v7XByEJ77wEHYWlUFTjMO3yrTc5wEkBfw6H8nOeVZQGMGuxikaYIQsdxkGYGR3SNDNpG1wtrLhRW0RrV3CgUABO6tZMRMov0ojtwSYee9zA9T6D+ZgG4CM/ykigd4xhTJo6TlduFFLWaCKUBrdoAZzkrIHOBBI1JOItiHPTBJv6+vhrdRkCF7mM+1StI9wFxU/uaOWvGVVYq1flNZDJvqxOIoNCpZAEoicTFq940p8lhSByxD64btHDgT2KVedLqtgoHd5X3TGmOEodbs39KzQ/zCRSk75G5aFrzhYZLb7VThPJdkWyc0XBzu75lbUAjLtdInnhIcGB0wOE5Mbr0kjAeAtuuMSTM9+DLx8Gu8S6ZEB8KhTSRTtVrcxf50H6aC6UqDdC3DCkTQAk+9yHVLhNmmJzBOSU4DuYFQnXUXuQC3e2P/33zm2cvn39x+8mT11999N9//OrlP3928/RH8HH717/dfPpLdUxFjMZ4EhCp0Li5vW1tbIKfZSAkjGvKhtFLXC5hp6eyT8zWSM87ctHqdFsHvaZMJRkwZVdp1xSj1DxK8uVIHUJuJK/UTD1BkTjjNDXpdQlbSOOOGG0uSZm6iL+LUdni1YsvXr34853c2mB5P2Lv7GxV7fob2xUYEu0luqxdESOjmgjSgXSzam1V6/UC8QINGsJcDQNAZqeu54gZ1KpvWHaWxr3MkVcRLaK0pDE+Nxf4FKilWojMBYrrFCkdfwwhkqFVKBQW2kW/+snrvzwpUWnrakhZCignS73YzEwXUvThcGyMBsfDVscYd0bCT3JcgU4J/xZivXsWTyWnojTBwVsGoeItxajAkFAxojODYHdqzCESC3FYcrZVULXRA0UuankQR8lM3UiBIYeuoMyyyUqOFblG4qQ9l5JOjlpBrnS9+fuXqxj0Qdp505c9CxRhqIRRoAJeR+3n/3r59ccvnz+/ffbzm68/LEnQ+2TTMvg5RFNxmbk9pDxdbxYg6GQkjXlh/aBQXzRQDBtHkU85c+xHcs7QKwSstpAmf6NuCCVPCpb2AvgCBL2LWeea68B2DpFZBoCeMwzVNsrHsQygcnhu1//89ne3v/7y9rNnrz/+080nf7z59LNXL37/+ukfVNTdPnl2+9OnOssvFgKpixjyVP9nyFcD1xDRaIjabXzzwS8MGnEDWg4jkRnpmw8+LwgTisrmJJcM3VymSFmFJdIis+AzCqpkOpT4MhbVALRECdvIKHQRi2a+m2/yXlWIEnEnEd/pjqsJI0YE3dR34SRl4pz5vnyaRZXUo7etungXzEFiFMcTzAqmPwiiCTQZKULO5AskJa5vZ8hp5X4HvUGz0ctJlBKD2IMR3hIPC+IDpS2lKCldlq5SVytAAAuNn5sE4hlliWwZlUkupDFTv0ecNTyR/laP8yUK1EriWDVEVD9xj5IZNMPpw9XdePmaV+h/D1WvWuyI83W3XcbDuoCFQlhGC4DEy9SkUSpNdZl4+lDt7KEwTb4EXOkFEMyhX7FVp3UJfWVsirzTieMoXpl8ckxK1odOGjKKmVs8o5F3qrpuL7+rFJAmvOxDDX36hFGbBISv98Rr5tz96PLBvHD367J22SDwtDHXGz0ys+QCiu/cwlH+32du5WyNOIbGSryJrf0unc6sQxh119RGHUUyigkQdtcPx/t+zPhjkQn0l4KcZpBT1aE+FgOX+pDrU6e+rQBAYBalmyU109Dl6q8NUdDzQ3/NsdBK47ssBGw5m6kWrruep4jSckiuocEsSICkOPkhlA31aLKONOWwkEszfvG+x/zzKV9XsbcnmHhkYlXdCalXNz1ru7pDyEbVtuF/7NbrlrUlXge1cMgcPrlacxMzvbD8r4DO/wC3crROPhwAAA==</t>
+          <t>Nx4AAB+LCAAAAAAAAAOlWd1vI7cR/1cWemqByLuSbJ9l0BvIknwRKtmGJdfnvBTULmWzXnGVJde23lKgRYo0RVEUlyL9RJ9SFOj10CZAeteP/yU4+65P/Rc6/NgvSc553YOBW87MbzgcDmeGFHr3ehpYlyTiNGQ7ldqaU7EI80KfsrOdSiwm1dpm5V0Xda89EhziCE+JAGELUIxvX3O6UzkXYrZt21dXV2tXjbUwOrPrjlOznwz6Q++cTHGVMi4w80glRflvR1Vc1PanAyKwjwXWyJ1Kb9hbaxPqdYA2wAyfkWhtN+aUEc67TFBBCZfIiGBB2p3Bd/XC3Pra5loN2Uv0THI3poGv5QqSmm7kYFoyolPi1p26U3W2qvX1kdPcbjS3nc21xsb6+wkwFUR9zMWQRJfUU4ShwNOZgjtb9XWn2Wg6m8heKQS6Mge46CDwj8gl5cRvkyDgpTximw1seQJWXc6ZDrJzWKPo4SY8jvDsfERFQMrC98KIeOCoB829T64OIuO/0awP3NE5jcS8g+eldR1zEh3MpDfKQV3UCZloBSQSxzPYVOLDngPDFVFMkH0HMwN1KPfgm7KY+O4EBzwPKjDRSRhd8Bn2yD4cWFvquGJBiH2ILEG5oB7PFCxx0GEUzkAlzL4bBv4eqDUmrmCkqnsMfCzn3Q3Di0XtRSZSQaDCATZ1ikUivkRHw/Pw6oAF82E85l5Ex8Tv7CbSK3lIHj2DbsdchFOwIiMhTctRBoN35vAPTtsiB3WIR6c4OAzAkdxtgKICAbViEU6oaIdBPGWpRxeo6AQWNSLX6SLTMTqADWbS7yHrsURee3olqwg4Cq/SOZcZyg85cot7SZwtMxaFO0BLdnCZozZFrnKPBlAM8tuRoxYDY3hOiFgZFZqDZN7bk+XFbQUBsrMhgsiE8AYzXAcqRFX9jRxnW/3BtCkbdZl/t1zCRPvx9GAMR/hSLcitAW+BhGAJwW6A2QVQT6g4328lpq/gIL3gO+WXeQgO6yzAc0VOnZKnoR7zgtgnOgf02ERFpLRN7+GdbLRE6sOpdhFm89F8BjmX020BHzsVqMLbXERQ5yuuF8ZMRHOZLJBtRN+G4fGYqQlwcG/MJCIfxNBezPdi5rVD//6z+do7x4yK+1sYxpHOgPeHKO/JXBjzDpFZReX5e+O9MmviUSnxKSPTkFHv/t4GJ0vr/QcshCenKoew74itDpngOIAGRkD5OcsqywIZtfjFokyehI6jIMkMrmwPOfSHnj9d86Cwyh5ozQunkmBDW3YyRHZeXnYHHumysz5mZzHU3/QALtLTvCRLxyjCjMvlpOV2IUWtFkLJgdZtgLucFZC9IIJGZDoLIxwMwCd0z2yNaSOgQg+wODcjSPcB8RL/2hk0RRWNSmx+m5jK23oF8lCYVLJAVEJy43UTmslkNCSXOIDQDdo4oONIZ56kuq3iwV5lPVOSo+TiSvZPifvhIgIF6TtkLrvTbGDoKlprCUPHrkw27vBofau+4TTqUOzlGKkVHxEcWF0IeEGsHrskXEwBtm0dEU59+KI42LbeI2NCoVAoF5lUXRqdx6G9JBcqU1pgb5FSFIASfEYh1S4LppwM4J4SHAXznKBeaj/0QO72x/+++c3zVy8+v/346Zsvf/jff/zq1T9/dvPsR/Bx+9e/3XzyS71MLYxGeBwQZdBod2vLaaxDnKUkJJ1rq4bRjz2haKenqk9Mx8hcbNSg3e21H/d3VSpJiQlcp11b3pnmYZwNh3oRaiK1pXYSCVrEHSWpyYwL3Fwad+Ud5pIUpfP8u4DaF69ffv765Z/vRBuHZf1IrdncqNbqb21X6k6ttiSXtivybqhvBObmWVuvOhvVej0nvCCDjuACDReA1E89323UnKZTbzi1NI37aSCvElpkGU0jfGYv4DSprVuINATy44SpAn8ERyRl66OQG5gQ/fInb/7ytCBlvGsoRS1gnCr1cjI7GSjV+0cja3hwfNTuWqPuUMZJxsvJaeXfIGxmT89TIagYi3HwjkWYfDSxKnBJqFjhxCLYO7fmcBJz57AQbKuoeqIHqly08nEUxjO9IzlARl0hmWaTlYgVuUbxlD+Xkk7GWiGubb35+xerAGYhnazpc48Gu9aUpXGpaKjA0aQc35zaz/716quPXr14cfv85zdf/aCgwcyT3pYhzuE05Ydp2EPKM/VmgYJOhsqZF873cvXFEOVl4zCkTHC3tqnuGWaEAFqT2tT/qDeFkqcUK38BfYGC3sO8ey3MwXb3kV0kgJ0zDNU2zK5jKUHn8Myv//nt725//cXtp8/ffPSnm4//ePPJp69f/v7Nsz/oU3f79PntT5+ZLL9YCJQt8pKn+z9LvRp4ljyNlqzd1tcf/sJiobCg5bBilZG+/vCznDJpqGpOMs3QzaWGFE1YEs2DJc7KmZLaUMClEN0AtGUJa6QSpoiFM+plk7xflarkuVOMb/VG1ZgTK4Ru6tuwkqJwBr4vzkB0ST185NRrdcPV1sgljDHPuf5xEI6hyUgY6k6+IFJAfTMgk1XzPe4f7Lb6mYg24iDy4QrvyIcF+YF6PGkqk/DKUYALzZ4XB/LpZElsmYWSr1zqss0bxKTly5S3+gpfkEDtOIp0E8TM+/UwnkEDnDxW3c1XL3i5nndf96f5Ljgb9zpFPoxzXCh+RbYkKL5KR4alU1OPy+cO3cLuS9dkQ+AVXv3AHeaJWndXl9BLRrbMNd0oCqOVCSfjJGID6J4hi9iZx1MZW06pO20/26uEkCS59ENf9MwKww4JiCj9fpugB+Hlg7Gw92WhPX4Q+MaZ5a4bqVsyBflHbBkoZY1pRRG0TfLFq/Src5+yi1651bu1cW0LQ9NA8Hp93Gg0H3mTR5NHGxsNPN6YbMjGUSmVt0+pQt5c5N2t5CTILsKzK/YRXLpLatMOVkB5FwVPqQNpEns6Rns04uKJTFHmS1NOU8qpbp2fSPv0hxqfuvUtTQABOz+ZXbA6yS9C/94RBn06pSXvq06ShIpKIAxmM91blt1QqHn75Bo635wGyNbj70M90685ZbTpUwVJPsUnuobxuLQ6OwEfAl8G1sPQXR/6soej1Y8HNPg/DFCd10NV9BinZ+ei7L7Wm80G2ST1an3iedV1GFShGo+rPp40a44zafgbdfnqa5RDdaDkquQksqZQDveK8jh74edf93+Og/YBNx4AAA==</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM,yyyy"/>
     <numFmt numFmtId="164" formatCode="MM,yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -674,4 +674,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>29</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7A6C1B3-A6ED-4350-AA58-3E5D36153E10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_51.xlsx
+++ b/Testdata/TC_51.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Nx4AAB+LCAAAAAAAAAOlWd1vI7cR/1cWemqByLuSbJ9l0BvIknwRKtmGJdfnvBTULmWzXnGVJde23lKgRYo0RVEUlyL9RJ9SFOj10CZAeteP/yU4+65P/Rc6/NgvSc553YOBW87MbzgcDmeGFHr3ehpYlyTiNGQ7ldqaU7EI80KfsrOdSiwm1dpm5V0Xda89EhziCE+JAGELUIxvX3O6UzkXYrZt21dXV2tXjbUwOrPrjlOznwz6Q++cTHGVMi4w80glRflvR1Vc1PanAyKwjwXWyJ1Kb9hbaxPqdYA2wAyfkWhtN+aUEc67TFBBCZfIiGBB2p3Bd/XC3Pra5loN2Uv0THI3poGv5QqSmm7kYFoyolPi1p26U3W2qvX1kdPcbjS3nc21xsb6+wkwFUR9zMWQRJfUU4ShwNOZgjtb9XWn2Wg6m8heKQS6Mge46CDwj8gl5cRvkyDgpTximw1seQJWXc6ZDrJzWKPo4SY8jvDsfERFQMrC98KIeOCoB829T64OIuO/0awP3NE5jcS8g+eldR1zEh3MpDfKQV3UCZloBSQSxzPYVOLDngPDFVFMkH0HMwN1KPfgm7KY+O4EBzwPKjDRSRhd8Bn2yD4cWFvquGJBiH2ILEG5oB7PFCxx0GEUzkAlzL4bBv4eqDUmrmCkqnsMfCzn3Q3Di0XtRSZSQaDCATZ1ikUivkRHw/Pw6oAF82E85l5Ex8Tv7CbSK3lIHj2DbsdchFOwIiMhTctRBoN35vAPTtsiB3WIR6c4OAzAkdxtgKICAbViEU6oaIdBPGWpRxeo6AQWNSLX6SLTMTqADWbS7yHrsURee3olqwg4Cq/SOZcZyg85cot7SZwtMxaFO0BLdnCZozZFrnKPBlAM8tuRoxYDY3hOiFgZFZqDZN7bk+XFbQUBsrMhgsiE8AYzXAcqRFX9jRxnW/3BtCkbdZl/t1zCRPvx9GAMR/hSLcitAW+BhGAJwW6A2QVQT6g4328lpq/gIL3gO+WXeQgO6yzAc0VOnZKnoR7zgtgnOgf02ERFpLRN7+GdbLRE6sOpdhFm89F8BjmX020BHzsVqMLbXERQ5yuuF8ZMRHOZLJBtRN+G4fGYqQlwcG/MJCIfxNBezPdi5rVD//6z+do7x4yK+1sYxpHOgPeHKO/JXBjzDpFZReX5e+O9MmviUSnxKSPTkFHv/t4GJ0vr/QcshCenKoew74itDpngOIAGRkD5OcsqywIZtfjFokyehI6jIMkMrmwPOfSHnj9d86Cwyh5ozQunkmBDW3YyRHZeXnYHHumysz5mZzHU3/QALtLTvCRLxyjCjMvlpOV2IUWtFkLJgdZtgLucFZC9IIJGZDoLIxwMwCd0z2yNaSOgQg+wODcjSPcB8RL/2hk0RRWNSmx+m5jK23oF8lCYVLJAVEJy43UTmslkNCSXOIDQDdo4oONIZ56kuq3iwV5lPVOSo+TiSvZPifvhIgIF6TtkLrvTbGDoKlprCUPHrkw27vBofau+4TTqUOzlGKkVHxEcWF0IeEGsHrskXEwBtm0dEU59+KI42LbeI2NCoVAoF5lUXRqdx6G9JBcqU1pgb5FSFIASfEYh1S4LppwM4J4SHAXznKBeaj/0QO72x/+++c3zVy8+v/346Zsvf/jff/zq1T9/dvPsR/Bx+9e/3XzyS71MLYxGeBwQZdBod2vLaaxDnKUkJJ1rq4bRjz2haKenqk9Mx8hcbNSg3e21H/d3VSpJiQlcp11b3pnmYZwNh3oRaiK1pXYSCVrEHSWpyYwL3Fwad+Ud5pIUpfP8u4DaF69ffv765Z/vRBuHZf1IrdncqNbqb21X6k6ttiSXtivybqhvBObmWVuvOhvVej0nvCCDjuACDReA1E89323UnKZTbzi1NI37aSCvElpkGU0jfGYv4DSprVuINATy44SpAn8ERyRl66OQG5gQ/fInb/7ytCBlvGsoRS1gnCr1cjI7GSjV+0cja3hwfNTuWqPuUMZJxsvJaeXfIGxmT89TIagYi3HwjkWYfDSxKnBJqFjhxCLYO7fmcBJz57AQbKuoeqIHqly08nEUxjO9IzlARl0hmWaTlYgVuUbxlD+Xkk7GWiGubb35+xerAGYhnazpc48Gu9aUpXGpaKjA0aQc35zaz/716quPXr14cfv85zdf/aCgwcyT3pYhzuE05Ydp2EPKM/VmgYJOhsqZF873cvXFEOVl4zCkTHC3tqnuGWaEAFqT2tT/qDeFkqcUK38BfYGC3sO8ey3MwXb3kV0kgJ0zDNU2zK5jKUHn8Myv//nt725//cXtp8/ffPSnm4//ePPJp69f/v7Nsz/oU3f79PntT5+ZLL9YCJQt8pKn+z9LvRp4ljyNlqzd1tcf/sJiobCg5bBilZG+/vCznDJpqGpOMs3QzaWGFE1YEs2DJc7KmZLaUMClEN0AtGUJa6QSpoiFM+plk7xflarkuVOMb/VG1ZgTK4Ru6tuwkqJwBr4vzkB0ST185NRrdcPV1sgljDHPuf5xEI6hyUgY6k6+IFJAfTMgk1XzPe4f7Lb6mYg24iDy4QrvyIcF+YF6PGkqk/DKUYALzZ4XB/LpZElsmYWSr1zqss0bxKTly5S3+gpfkEDtOIp0E8TM+/UwnkEDnDxW3c1XL3i5nndf96f5Ljgb9zpFPoxzXCh+RbYkKL5KR4alU1OPy+cO3cLuS9dkQ+AVXv3AHeaJWndXl9BLRrbMNd0oCqOVCSfjJGID6J4hi9iZx1MZW06pO20/26uEkCS59ENf9MwKww4JiCj9fpugB+Hlg7Gw92WhPX4Q+MaZ5a4bqVsyBflHbBkoZY1pRRG0TfLFq/Src5+yi1651bu1cW0LQ9NA8Hp93Gg0H3mTR5NHGxsNPN6YbMjGUSmVt0+pQt5c5N2t5CTILsKzK/YRXLpLatMOVkB5FwVPqQNpEns6Rns04uKJTFHmS1NOU8qpbp2fSPv0hxqfuvUtTQABOz+ZXbA6yS9C/94RBn06pSXvq06ShIpKIAxmM91blt1QqHn75Bo635wGyNbj70M90685ZbTpUwVJPsUnuobxuLQ6OwEfAl8G1sPQXR/6soej1Y8HNPg/DFCd10NV9BinZ+ei7L7Wm80G2ST1an3iedV1GFShGo+rPp40a44zafgbdfnqa5RDdaDkquQksqZQDveK8jh74edf93+Og/YBNx4AAA==</t>
+          <t>PhwAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAkkrK9sY0xA93sCJUsQ5LrdV6KETm2WJNDhTO0rbcESJEiTVEUxaZIr+hTigLdLtoESHd7+Zdg7d0+9Rd65sKbJGctd2GsOec2Z86c6xi9cx0GxiWJmR/RvYpdsyoGoW7k+fR8r5Lws6r9qPKOgzrXLgmOcIxDwoHYAC7Kdq+Zv1eZcj7bNc2rq6va1UYtis/NumXZ5uN+b+ROSYirPmUcU5dUMi7vzVwVB7W8sE849jDHinOv0h11ay3iu22A9THF5ySuNRPmU8JYh3Kf+4QJzphgTlrt/vfVwZx67VHNRuYSPKdsJn7gKboSpYJrOtiWjP2QOHXL3q5a29UNe2zt7G5t7tr1mrVjv5cyZoSohxkfkfjSdyVgxHE4k+zW9oZt7Wxt2nVkriQCWbkBHDQIvCG59BnxWiQI2FoWMfUFNlwOp17PmBYyC7xa0MNVOIjxbDr2eUDWU2PYbxoh1brkQhy0H8XEBfs9SKVDcjWItVnHsx5gx1M/5vM2nq8t65iReDATRlqP1UHtiPJGQGJ+PIO7Jh64AiAcHicEmXcgc6a2z1z49mlCPOcMB6zIVEKikyi+YDPskkOIY1PIuKJBhD1wOO4z7rssF7CEQUdxNAORsHszCrx9EKtVXIHIRHcp2Fjs24yii0XpZSSS1yovGC41xDwlX4Kj0TS6GtBgPkomzI39CfHazZR6JQ6JiNTcrYTxKAQtchBSsAKk339rDv8gCBcxqE1cP8TBUQCGZM4GCCoBUCPh0ZnPW1GQhDSz6AIUncChxuQ6O2S2RgO4YCrsHtEuTemVpVeiygzD6Crbcxkh7VAAN5ib+tkyYpG4DbD0Bpcx8lLEKff9AGpE8ToK0LJjjKaE8JVeoTBIpMN9UXWcRhAgM18i8Exwb1DDsaBwVOXP2LJ25Q9sm6FRh3p306VIdJiEgwmE8KU8kGMDbgGE4AhBM8D0AqAnPp8eNlLVV2CQOvCd9Ms4BME6C/BcgjOjFGGoS90g8YjKAV16Jj1S6Kbu8E40WgL1IKodhOl8PJ9BKmb+LoePvQoU513GYyj/FceNEsrjuUgWyNSkb+JhyYTKDXBwb56zmLyfQNcx30+o24q8++/mKescU5/fX8MoiVUGvD+LtJ7IhQlrE5FVZJ6/N7+7zplYvBZ5SEkYUd+9v7XByEJ77wEHYWlUFTjMO3yrTc5wEkBfw6H8nOeVZQGMGuxikaYIQsdxkGYGR3SNDNpG1wtrLhRW0RrV3CgUABO6tZMRMov0ojtwSYee9zA9T6D+ZgG4CM/ykigd4xhTJo6TlduFFLWaCKUBrdoAZzkrIHOBBI1JOItiHPTBJv6+vhrdRkCF7mM+1StI9wFxU/uaOWvGVVYq1flNZDJvqxOIoNCpZAEoicTFq940p8lhSByxD64btHDgT2KVedLqtgoHd5X3TGmOEodbs39KzQ/zCRSk75G5aFrzhYZLb7VThPJdkWyc0XBzu75lbUAjLtdInnhIcGB0wOE5Mbr0kjAeAtuuMSTM9+DLx8Gu8S6ZEB8KhTSRTtVrcxf50H6aC6UqDdC3DCkTQAk+9yHVLhNmmJzBOSU4DuYFQnXUXuQC3e2P/33zm2cvn39x+8mT11999N9//OrlP3928/RH8HH717/dfPpLdUxFjMZ4EhCp0Li5vW1tbIKfZSAkjGvKhtFLXC5hp6eyT8zWSM87ctHqdFsHvaZMJRkwZVdp1xSj1DxK8uVIHUJuJK/UTD1BkTjjNDXpdQlbSOOOGG0uSZm6iL+LUdni1YsvXr34853c2mB5P2Lv7GxV7fob2xUYEu0luqxdESOjmgjSgXSzam1V6/UC8QINGsJcDQNAZqeu54gZ1KpvWHaWxr3MkVcRLaK0pDE+Nxf4FKilWojMBYrrFCkdfwwhkqFVKBQW2kW/+snrvzwpUWnrakhZCignS73YzEwXUvThcGyMBsfDVscYd0bCT3JcgU4J/xZivXsWTyWnojTBwVsGoeItxajAkFAxojODYHdqzCESC3FYcrZVULXRA0UuankQR8lM3UiBIYeuoMyyyUqOFblG4qQ9l5JOjlpBrnS9+fuXqxj0Qdp505c9CxRhqIRRoAJeR+3n/3r59ccvnz+/ffbzm68/LEnQ+2TTMvg5RFNxmbk9pDxdbxYg6GQkjXlh/aBQXzRQDBtHkU85c+xHcs7QKwSstpAmf6NuCCVPCpb2AvgCBL2LWeea68B2DpFZBoCeMwzVNsrHsQygcnhu1//89ne3v/7y9rNnrz/+080nf7z59LNXL37/+ukfVNTdPnl2+9OnOssvFgKpixjyVP9nyFcD1xDRaIjabXzzwS8MGnEDWg4jkRnpmw8+LwgTisrmJJcM3VymSFmFJdIis+AzCqpkOpT4MhbVALRECdvIKHQRi2a+m2/yXlWIEnEnEd/pjqsJI0YE3dR34SRl4pz5vnyaRZXUo7etungXzEFiFMcTzAqmPwiiCTQZKULO5AskJa5vZ8hp5X4HvUGz0ctJlBKD2IMR3hIPC+IDpS2lKCldlq5SVytAAAuNn5sE4hlliWwZlUkupDFTv0ecNTyR/laP8yUK1EriWDVEVD9xj5IZNMPpw9XdePmaV+h/D1WvWuyI83W3XcbDuoCFQlhGC4DEy9SkUSpNdZl4+lDt7KEwTb4EXOkFEMyhX7FVp3UJfWVsirzTieMoXpl8ckxK1odOGjKKmVs8o5F3qrpuL7+rFJAmvOxDDX36hFGbBISv98Rr5tz96PLBvHD367J22SDwtDHXGz0ys+QCiu/cwlH+32du5WyNOIbGSryJrf0unc6sQxh119RGHUUyigkQdtcPx/t+zPhjkQn0l4KcZpBT1aE+FgOX+pDrU6e+rQBAYBalmyU109Dl6q8NUdDzQ3/NsdBK47ssBGw5m6kWrruep4jSckiuocEsSICkOPkhlA31aLKONOWwkEszfvG+x/zzKV9XsbcnmHhkYlXdCalXNz1ru7pDyEbVtuF/7NbrlrUlXge1cMgcPrlacxMzvbD8r4DO/wC3crROPhwAAA==</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM,yyyy"/>
     <numFmt numFmtId="164" formatCode="MM,yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -518,7 +518,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -674,37 +674,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>29</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7A6C1B3-A6ED-4350-AA58-3E5D36153E10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>